--- a/data/bakery_orders_clean.xlsx
+++ b/data/bakery_orders_clean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H429"/>
+  <dimension ref="A1:H428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2021-02-21</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -6080,17 +6080,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021-02-21</t>
+          <t>2021-02-25</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -6118,17 +6118,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021-02-25</t>
+          <t>2021-03-06</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -6146,27 +6146,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021-03-06</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -6184,27 +6184,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -6232,17 +6232,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>2021-02-27</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -6270,17 +6270,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -6308,17 +6308,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6346,17 +6346,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -6374,27 +6374,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2021-03-07</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6422,17 +6422,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>07</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021-03-07</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6488,27 +6488,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>03</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021-04-03</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6526,27 +6526,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-14</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6574,17 +6574,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021-03-14</t>
+          <t>2021-03-20</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6612,17 +6612,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021-03-20</t>
+          <t>2021-03-27</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021-03-27</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6688,17 +6688,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6716,27 +6716,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-04-04</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -6840,17 +6840,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021-04-04</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6878,17 +6878,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -6916,17 +6916,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021-04-03</t>
+          <t>2021-04-08</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -6954,17 +6954,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2021-04-23</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6992,17 +6992,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021-04-23</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -7030,17 +7030,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -7068,17 +7068,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -7106,17 +7106,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -7144,17 +7144,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7172,27 +7172,27 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -7296,17 +7296,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7334,17 +7334,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -7410,17 +7410,17 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -7486,17 +7486,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -7524,17 +7524,17 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7600,17 +7600,17 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -7628,37 +7628,37 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7666,27 +7666,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021-05-22</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -7752,17 +7752,17 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7790,17 +7790,17 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-29</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7828,17 +7828,17 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021-05-29</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7856,27 +7856,27 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7904,17 +7904,17 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7980,17 +7980,17 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -8094,17 +8094,17 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-12</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -8170,17 +8170,17 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-06-12</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -8246,17 +8246,17 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -8284,17 +8284,17 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -8360,17 +8360,17 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-10</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -8388,27 +8388,27 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021-07-10</t>
+          <t>2021-06-19</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -8426,17 +8426,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -8474,17 +8474,17 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>2021-06-19</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -8512,17 +8512,17 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -8626,17 +8626,17 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -8664,17 +8664,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-19</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -8702,17 +8702,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -8740,17 +8740,17 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -8778,17 +8778,17 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -8844,27 +8844,27 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -8882,12 +8882,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8897,12 +8897,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -8920,27 +8920,27 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -9006,17 +9006,17 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2021-07-23</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -9120,17 +9120,17 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-24</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -9158,17 +9158,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2021-07-24</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -9234,17 +9234,17 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>2021-07-31</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -9272,17 +9272,17 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2021-07-31</t>
+          <t>2021-08-01</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -9300,27 +9300,27 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2021-08-01</t>
+          <t>2021-08-21</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9348,17 +9348,17 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -9424,17 +9424,17 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -9462,17 +9462,17 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>2021-08-28</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -9576,17 +9576,17 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-08-21</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -9614,17 +9614,17 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -9652,17 +9652,17 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2021-08-21</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -9690,17 +9690,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2021-08-20</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -9728,17 +9728,17 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -9766,17 +9766,17 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-08-28</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -9804,17 +9804,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -9842,17 +9842,17 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-11</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -9870,27 +9870,27 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -9994,17 +9994,17 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -10032,17 +10032,17 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -10070,17 +10070,17 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -10108,17 +10108,17 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-11-01</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -10136,27 +10136,27 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -10174,27 +10174,27 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -10212,27 +10212,27 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2021-10-01</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -10260,17 +10260,17 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-04</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -10336,17 +10336,17 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2021-10-04</t>
+          <t>2021-02-09</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -10364,27 +10364,27 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2021-02-09</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -10526,17 +10526,17 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -10602,17 +10602,17 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -10678,17 +10678,17 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -10716,17 +10716,17 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -10754,17 +10754,17 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -10782,27 +10782,27 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -10830,17 +10830,17 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -10868,17 +10868,17 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2021-11-20</t>
+          <t>2021-11-28</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -10982,17 +10982,17 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2021-11-28</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -11058,17 +11058,17 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -11086,27 +11086,27 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -11134,17 +11134,17 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -11172,17 +11172,17 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -11210,17 +11210,17 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -11248,17 +11248,17 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2021-12-12</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -11286,17 +11286,17 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2021-12-12</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -11324,17 +11324,17 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2021-12-19</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -11362,17 +11362,17 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-16</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -11400,17 +11400,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2021-12-16</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -11438,17 +11438,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2021-12-18</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -11476,17 +11476,17 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2021-12-19</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -11514,17 +11514,17 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -11552,17 +11552,17 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-23</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -11590,17 +11590,17 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -11628,17 +11628,17 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -11666,17 +11666,17 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -11704,17 +11704,17 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -11770,27 +11770,27 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -11800,11 +11800,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2022-01-08</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2022-01-13</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -11856,17 +11856,17 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2022-01-13</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -11884,27 +11884,27 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -12084,17 +12084,17 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-14</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -12122,17 +12122,17 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -12312,17 +12312,17 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -12350,17 +12350,17 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-27</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -12388,17 +12388,17 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2022-02-27</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -12416,17 +12416,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -12464,17 +12464,17 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -12502,17 +12502,17 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -12522,7 +12522,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -12540,17 +12540,17 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -12616,17 +12616,17 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -12664,17 +12664,17 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -12682,27 +12682,27 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -12720,27 +12720,27 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -12758,27 +12758,27 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -12806,17 +12806,17 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -12844,17 +12844,17 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -12882,17 +12882,17 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -12948,27 +12948,27 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -12986,27 +12986,27 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -13072,27 +13072,27 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -13110,17 +13110,17 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -13176,27 +13176,27 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>07</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -13214,27 +13214,27 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -13252,27 +13252,27 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -13300,17 +13300,17 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -13338,17 +13338,17 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -13381,12 +13381,12 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -13414,17 +13414,17 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -13452,17 +13452,17 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -13480,27 +13480,27 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -13518,27 +13518,27 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -13556,17 +13556,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -13680,17 +13680,17 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -13718,17 +13718,17 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -13756,17 +13756,17 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -13794,17 +13794,17 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -13832,17 +13832,17 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -13898,27 +13898,27 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -13984,17 +13984,17 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -14022,17 +14022,17 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -14136,17 +14136,17 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -14164,27 +14164,27 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -14202,27 +14202,27 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -14250,17 +14250,17 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -14288,17 +14288,17 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -14326,17 +14326,17 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14346,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -14354,27 +14354,27 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -14392,27 +14392,27 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -14440,17 +14440,17 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -14516,17 +14516,17 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -14574,7 +14574,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -14592,17 +14592,17 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -14630,17 +14630,17 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-03</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -14658,27 +14658,27 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2022-09-03</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -14706,17 +14706,17 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -14782,17 +14782,17 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -14820,17 +14820,17 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -14858,17 +14858,17 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-09-24</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2022-10-08</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -14962,17 +14962,17 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>08</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -15010,17 +15010,17 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-08</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -15048,17 +15048,17 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>08</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2022-10-15</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -15182,7 +15182,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2022-10-15</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -15266,27 +15266,27 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-12</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -15314,27 +15314,27 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2022-11-12</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -15428,17 +15428,17 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -15466,17 +15466,17 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -15494,27 +15494,27 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -15542,17 +15542,17 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-12-10</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -15618,17 +15618,17 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -15694,17 +15694,17 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -15732,17 +15732,17 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15752,7 +15752,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -15770,17 +15770,17 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -15808,17 +15808,17 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -15846,17 +15846,17 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -15884,17 +15884,17 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -15922,17 +15922,17 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -15942,7 +15942,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -15960,17 +15960,17 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -15998,17 +15998,17 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -16036,17 +16036,17 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -16074,17 +16074,17 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -16094,7 +16094,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -16112,17 +16112,17 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -16170,35 +16170,35 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -16226,17 +16226,17 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -16264,17 +16264,17 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -16302,27 +16302,27 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-17</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -16340,17 +16340,17 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -16378,17 +16378,17 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -16454,17 +16454,17 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -16474,7 +16474,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -16492,17 +16492,17 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -16530,17 +16530,17 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -16558,27 +16558,27 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>08:00</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -16606,17 +16606,17 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -16664,7 +16664,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -16682,55 +16682,17 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
-      </c>
-      <c r="C429" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>11:00:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
